--- a/Nueva lista Color-recompensa3.xlsx
+++ b/Nueva lista Color-recompensa3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pili\Dropbox\Trabajo\PaperColoryrecompensas\Coloryrecompensas-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25498BF-8986-4A4E-B853-7EB9517F2A8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="-30" windowWidth="10515" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Definitivo!$A$1:$U$99</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pili</author>
   </authors>
   <commentList>
-    <comment ref="G32" authorId="0">
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0">
+    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="346">
   <si>
     <t>1.FAM</t>
   </si>
@@ -1184,11 +1198,14 @@
   <si>
     <t>Ulex_eriocladus</t>
   </si>
+  <si>
+    <t>21.NECTAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1350,12 +1367,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1397,7 +1417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1430,9 +1450,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,6 +1502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1640,26 +1694,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="40" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6536,7 +6590,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C96">
     <sortCondition ref="C2:C96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6544,32 +6598,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7265625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6633,8 +6688,11 @@
       <c r="U1" s="9" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="29" t="s">
         <v>253</v>
       </c>
@@ -6698,8 +6756,11 @@
       <c r="U2" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="29" t="s">
         <v>270</v>
       </c>
@@ -6761,8 +6822,11 @@
       <c r="U3" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="29" t="s">
         <v>270</v>
       </c>
@@ -6824,8 +6888,11 @@
       <c r="U4" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="29" t="s">
         <v>255</v>
       </c>
@@ -6889,8 +6956,11 @@
       <c r="U5" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="29" t="s">
         <v>255</v>
       </c>
@@ -6954,8 +7024,11 @@
       <c r="U6" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="29" t="s">
         <v>264</v>
       </c>
@@ -7017,8 +7090,11 @@
       <c r="U7" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="29" t="s">
         <v>277</v>
       </c>
@@ -7080,8 +7156,11 @@
       <c r="U8" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="29" t="s">
         <v>277</v>
       </c>
@@ -7141,8 +7220,11 @@
       <c r="U9" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="29" t="s">
         <v>278</v>
       </c>
@@ -7204,8 +7286,11 @@
       <c r="U10" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="29" t="s">
         <v>264</v>
       </c>
@@ -7265,8 +7350,11 @@
       <c r="U11" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="23" customFormat="1">
+      <c r="V11" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="23" customFormat="1">
       <c r="A12" s="29" t="s">
         <v>265</v>
       </c>
@@ -7328,8 +7416,11 @@
       <c r="U12" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="29" t="s">
         <v>255</v>
       </c>
@@ -7387,8 +7478,11 @@
       <c r="U13" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="29" t="s">
         <v>262</v>
       </c>
@@ -7448,8 +7542,9 @@
       <c r="U14" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="28"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="29" t="s">
         <v>257</v>
       </c>
@@ -7459,7 +7554,9 @@
       <c r="C15" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="12">
         <v>3410</v>
@@ -7509,8 +7606,11 @@
       <c r="U15" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="29" t="s">
         <v>257</v>
       </c>
@@ -7572,8 +7672,11 @@
       <c r="U16" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="29" t="s">
         <v>257</v>
       </c>
@@ -7631,8 +7734,11 @@
       <c r="U17" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="29" t="s">
         <v>265</v>
       </c>
@@ -7692,8 +7798,11 @@
       <c r="U18" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="29" t="s">
         <v>255</v>
       </c>
@@ -7757,8 +7866,11 @@
       <c r="U19" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="29" t="s">
         <v>255</v>
       </c>
@@ -7822,8 +7934,11 @@
       <c r="U20" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="29" t="s">
         <v>260</v>
       </c>
@@ -7887,8 +8002,11 @@
       <c r="U21" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="29" t="s">
         <v>260</v>
       </c>
@@ -7952,8 +8070,11 @@
       <c r="U22" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="29" t="s">
         <v>260</v>
       </c>
@@ -8017,8 +8138,11 @@
       <c r="U23" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="29" t="s">
         <v>260</v>
       </c>
@@ -8080,8 +8204,11 @@
       <c r="U24" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="29" t="s">
         <v>260</v>
       </c>
@@ -8145,8 +8272,11 @@
       <c r="U25" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="29" t="s">
         <v>260</v>
       </c>
@@ -8210,8 +8340,11 @@
       <c r="U26" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="29" t="s">
         <v>271</v>
       </c>
@@ -8273,8 +8406,11 @@
       <c r="U27" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" s="23" customFormat="1">
+      <c r="V27" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="23" customFormat="1">
       <c r="A28" s="29" t="s">
         <v>261</v>
       </c>
@@ -8332,8 +8468,11 @@
       <c r="U28" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="29" t="s">
         <v>261</v>
       </c>
@@ -8397,8 +8536,11 @@
       <c r="U29" s="16" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="29" t="s">
         <v>264</v>
       </c>
@@ -8460,8 +8602,11 @@
       <c r="U30" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="29" t="s">
         <v>273</v>
       </c>
@@ -8525,8 +8670,11 @@
       <c r="U31" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" s="23" customFormat="1">
+      <c r="V31" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="23" customFormat="1">
       <c r="A32" s="29" t="s">
         <v>255</v>
       </c>
@@ -8588,8 +8736,11 @@
       <c r="U32" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="29" t="s">
         <v>280</v>
       </c>
@@ -8644,8 +8795,11 @@
       <c r="U33" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="29" t="s">
         <v>264</v>
       </c>
@@ -8705,8 +8859,11 @@
       <c r="U34" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="29" t="s">
         <v>284</v>
       </c>
@@ -8770,8 +8927,11 @@
       <c r="U35" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="29" t="s">
         <v>281</v>
       </c>
@@ -8835,8 +8995,11 @@
       <c r="U36" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="29" t="s">
         <v>256</v>
       </c>
@@ -8898,8 +9061,11 @@
       <c r="U37" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="29" t="s">
         <v>256</v>
       </c>
@@ -8961,8 +9127,11 @@
       <c r="U38" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="29" t="s">
         <v>254</v>
       </c>
@@ -9026,8 +9195,11 @@
       <c r="U39" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="29" t="s">
         <v>281</v>
       </c>
@@ -9091,8 +9263,11 @@
       <c r="U40" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="29" t="s">
         <v>255</v>
       </c>
@@ -9154,8 +9329,11 @@
       <c r="U41" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="29" t="s">
         <v>255</v>
       </c>
@@ -9217,8 +9395,11 @@
       <c r="U42" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="29" t="s">
         <v>263</v>
       </c>
@@ -9278,8 +9459,11 @@
       <c r="U43" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="29" t="s">
         <v>263</v>
       </c>
@@ -9343,8 +9527,11 @@
       <c r="U44" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="29" t="s">
         <v>264</v>
       </c>
@@ -9408,8 +9595,11 @@
       <c r="U45" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="29" t="s">
         <v>258</v>
       </c>
@@ -9419,7 +9609,9 @@
       <c r="C46" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="14">
         <v>2303</v>
@@ -9469,8 +9661,11 @@
       <c r="U46" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="29" t="s">
         <v>254</v>
       </c>
@@ -9480,7 +9675,9 @@
       <c r="C47" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="12"/>
       <c r="G47" s="6">
@@ -9526,8 +9723,11 @@
       <c r="U47" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="29" t="s">
         <v>264</v>
       </c>
@@ -9589,8 +9789,11 @@
       <c r="U48" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="29" t="s">
         <v>264</v>
       </c>
@@ -9652,8 +9855,11 @@
       <c r="U49" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="29" t="s">
         <v>260</v>
       </c>
@@ -9715,8 +9921,11 @@
       <c r="U50" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="29" t="s">
         <v>260</v>
       </c>
@@ -9778,8 +9987,11 @@
       <c r="U51" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="29" t="s">
         <v>255</v>
       </c>
@@ -9839,8 +10051,11 @@
       <c r="U52" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="29" t="s">
         <v>282</v>
       </c>
@@ -9898,8 +10113,11 @@
       <c r="U53" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="29" t="s">
         <v>266</v>
       </c>
@@ -9963,8 +10181,11 @@
       <c r="U54" s="7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="29" t="s">
         <v>253</v>
       </c>
@@ -10022,8 +10243,11 @@
       <c r="U55" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="29" t="s">
         <v>253</v>
       </c>
@@ -10085,8 +10309,11 @@
       <c r="U56" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="29" t="s">
         <v>279</v>
       </c>
@@ -10150,8 +10377,11 @@
       <c r="U57" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="29" t="s">
         <v>258</v>
       </c>
@@ -10215,8 +10445,11 @@
       <c r="U58" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="29" t="s">
         <v>264</v>
       </c>
@@ -10278,8 +10511,11 @@
       <c r="U59" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="29" t="s">
         <v>264</v>
       </c>
@@ -10341,8 +10577,11 @@
       <c r="U60" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="29" t="s">
         <v>279</v>
       </c>
@@ -10406,8 +10645,11 @@
       <c r="U61" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="29" t="s">
         <v>267</v>
       </c>
@@ -10469,8 +10711,11 @@
       <c r="U62" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="29" t="s">
         <v>264</v>
       </c>
@@ -10532,8 +10777,11 @@
       <c r="U63" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="29" t="s">
         <v>264</v>
       </c>
@@ -10591,8 +10839,11 @@
       <c r="U64" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="29" t="s">
         <v>264</v>
       </c>
@@ -10650,8 +10901,11 @@
       <c r="U65" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="29" t="s">
         <v>281</v>
       </c>
@@ -10715,8 +10969,11 @@
       <c r="U66" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="29" t="s">
         <v>264</v>
       </c>
@@ -10776,8 +11033,11 @@
       <c r="U67" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="29" t="s">
         <v>269</v>
       </c>
@@ -10837,8 +11097,11 @@
       <c r="U68" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="29" t="s">
         <v>278</v>
       </c>
@@ -10902,8 +11165,11 @@
       <c r="U69" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="29" t="s">
         <v>266</v>
       </c>
@@ -10967,8 +11233,11 @@
       <c r="U70" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="29" t="s">
         <v>271</v>
       </c>
@@ -11028,8 +11297,9 @@
       <c r="U71" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71" s="28"/>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="29" t="s">
         <v>271</v>
       </c>
@@ -11089,8 +11359,9 @@
       <c r="U72" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="V72" s="28"/>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="29" t="s">
         <v>256</v>
       </c>
@@ -11152,8 +11423,11 @@
       <c r="U73" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="29" t="s">
         <v>264</v>
       </c>
@@ -11163,7 +11437,9 @@
       <c r="C74" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="13">
         <v>3448</v>
@@ -11213,8 +11489,11 @@
       <c r="U74" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="29" t="s">
         <v>272</v>
       </c>
@@ -11276,8 +11555,11 @@
       <c r="U75" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="29" t="s">
         <v>266</v>
       </c>
@@ -11341,8 +11623,11 @@
       <c r="U76" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="29" t="s">
         <v>273</v>
       </c>
@@ -11406,8 +11691,11 @@
       <c r="U77" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="29" t="s">
         <v>266</v>
       </c>
@@ -11471,8 +11759,11 @@
       <c r="U78" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="29" t="s">
         <v>281</v>
       </c>
@@ -11530,8 +11821,11 @@
       <c r="U79" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="29" t="s">
         <v>254</v>
       </c>
@@ -11541,7 +11835,9 @@
       <c r="C80" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="13"/>
       <c r="G80" s="2">
@@ -11589,8 +11885,11 @@
       <c r="U80" s="16" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="29" t="s">
         <v>264</v>
       </c>
@@ -11654,8 +11953,11 @@
       <c r="U81" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" s="23" customFormat="1">
+      <c r="V81" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" s="23" customFormat="1">
       <c r="A82" s="29" t="s">
         <v>274</v>
       </c>
@@ -11717,8 +12019,11 @@
       <c r="U82" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="29" t="s">
         <v>268</v>
       </c>
@@ -11778,8 +12083,11 @@
       <c r="U83" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="29" t="s">
         <v>259</v>
       </c>
@@ -11843,8 +12151,11 @@
       <c r="U84" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="29" t="s">
         <v>285</v>
       </c>
@@ -11854,7 +12165,9 @@
       <c r="C85" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D85" s="24"/>
+      <c r="D85" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E85" s="24"/>
       <c r="F85" s="31">
         <v>19224</v>
@@ -11900,8 +12213,11 @@
       <c r="U85" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="29" t="s">
         <v>275</v>
       </c>
@@ -11961,8 +12277,9 @@
       <c r="U86" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86" s="26"/>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="29" t="s">
         <v>266</v>
       </c>
@@ -12026,8 +12343,11 @@
       <c r="U87" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="16" t="s">
         <v>264</v>
       </c>
@@ -12089,8 +12409,11 @@
       <c r="U88" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="29" t="s">
         <v>286</v>
       </c>
@@ -12100,7 +12423,9 @@
       <c r="C89" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="13">
         <v>9570</v>
@@ -12150,8 +12475,11 @@
       <c r="U89" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="29" t="s">
         <v>266</v>
       </c>
@@ -12213,8 +12541,11 @@
       <c r="U90" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="29" t="s">
         <v>266</v>
       </c>
@@ -12278,8 +12609,11 @@
       <c r="U91" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="29" t="s">
         <v>266</v>
       </c>
@@ -12341,8 +12675,11 @@
       <c r="U92" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" s="23" customFormat="1">
+      <c r="V92" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" s="23" customFormat="1">
       <c r="A93" s="29" t="s">
         <v>260</v>
       </c>
@@ -12400,8 +12737,11 @@
       <c r="U93" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="29" t="s">
         <v>264</v>
       </c>
@@ -12461,8 +12801,11 @@
       <c r="U94" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="29" t="s">
         <v>276</v>
       </c>
@@ -12522,8 +12865,9 @@
       <c r="U95" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95" s="26"/>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="29" t="s">
         <v>264</v>
       </c>
@@ -12581,8 +12925,11 @@
       <c r="U96" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="29" t="s">
         <v>264</v>
       </c>
@@ -12642,8 +12989,11 @@
       <c r="U97" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="29" t="s">
         <v>264</v>
       </c>
@@ -12701,8 +13051,11 @@
       <c r="U98" s="7" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="29" t="s">
         <v>264</v>
       </c>
@@ -12760,9 +13113,12 @@
       <c r="U99" s="7" t="s">
         <v>300</v>
       </c>
+      <c r="V99" s="26" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R99">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R99">
     <sortCondition ref="B2:B99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12772,12 +13128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
